--- a/Tema_10_Seguranca_e_Violencias.xlsx
+++ b/Tema_10_Seguranca_e_Violencias.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFABC\Materias\2023.3\Introdução à Inferência Estatística\P2_IIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E80583-07B3-4147-B5D1-51B1403AE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D438110-48A3-4F6A-BC08-D9AE0B446309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10.12" sheetId="12" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="14" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Municípios das Capitais</t>
   </si>
@@ -145,84 +143,22 @@
   </si>
   <si>
     <t>Fonte: IBGE, Diretoria de Pesquisas, Coordenação de População e Indicadores Sociais, Pesquisa Nacional de Saúde do Escolar 2009, 2012 e 2015.</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Homens</t>
-  </si>
-  <si>
-    <t>Mulheres</t>
-  </si>
-  <si>
-    <t>Média de 2009, 2012 e 2015</t>
-  </si>
-  <si>
-    <t>Público</t>
-  </si>
-  <si>
-    <t>Privado</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Belem</t>
-  </si>
-  <si>
-    <t>Macapa</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>Sao Luis</t>
-  </si>
-  <si>
-    <t>Joao Pessoa</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Maceio</t>
-  </si>
-  <si>
-    <t>Vitoria</t>
-  </si>
-  <si>
-    <t>Florianopolis</t>
-  </si>
-  <si>
-    <t>Goiania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #\ ###\ ##0.0_-;\-* #\ ###\ ##0.0_-;_-* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
@@ -241,30 +177,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -337,67 +249,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -796,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="V11" sqref="V11:X37"/>
     </sheetView>
   </sheetViews>
@@ -808,394 +697,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="16" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="16" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3">
         <v>2009</v>
       </c>
       <c r="C6" s="3">
         <v>2012</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="7">
         <v>2015</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="3">
         <v>2009</v>
       </c>
       <c r="H6" s="3">
         <v>2012</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="7">
         <v>2015</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="3">
         <v>2009</v>
       </c>
       <c r="M6" s="3">
         <v>2012</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="7">
         <v>2015</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="3">
         <v>2009</v>
       </c>
       <c r="R6" s="3">
         <v>2012</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="7">
         <v>2015</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
       <c r="V6" s="3">
         <v>2009</v>
       </c>
       <c r="W6" s="3">
         <v>2012</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="8">
         <v>2015</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="7"/>
+      <c r="V7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="16"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17" t="s">
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="16"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3795,6 +3684,35 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="A1:Z2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="O9:O10"/>
@@ -3811,1888 +3729,9 @@
     <mergeCell ref="N7:N10"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:Z2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <pageMargins left="0.51180555555555562" right="0.51180555555555562" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="47" width="10.7109375" style="1"/>
-    <col min="48" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6.8813375496176796</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10.053640915394899</v>
-      </c>
-      <c r="E2" s="4">
-        <v>13.4987805789533</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">AVERAGE(C2:E2)</f>
-        <v>10.144586347988627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7.9074781084829198</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10.0598478387789</v>
-      </c>
-      <c r="E3" s="4">
-        <v>16.293123813498799</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>11.420149920253541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10.5830068130343</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12.029901007994299</v>
-      </c>
-      <c r="E4" s="4">
-        <v>17.4243251694013</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>13.345744330143299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8.6733103164945309</v>
-      </c>
-      <c r="D5" s="4">
-        <v>14.1259171290504</v>
-      </c>
-      <c r="E5" s="4">
-        <v>17.2349041103822</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>13.344710518642378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10.8085772465065</v>
-      </c>
-      <c r="D6" s="4">
-        <v>13.002550013706699</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15.062407509499501</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>12.957844923237566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11.4802437674181</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13.7050081877531</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16.100941725512602</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>13.762064560227934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6.6657240235104096</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9.2802891799987393</v>
-      </c>
-      <c r="E8" s="4">
-        <v>13.658750344821501</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>9.868254516110218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8.2189332756041402</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10.0710305443449</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16.151312578896199</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>11.480425466281746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.8071428599992707</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.4236024822766193</v>
-      </c>
-      <c r="E10" s="4">
-        <v>13.8767948682049</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>10.702513403493597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.3655977009708504</v>
-      </c>
-      <c r="D11" s="4">
-        <v>13.162609134398201</v>
-      </c>
-      <c r="E11" s="4">
-        <v>16.451688514703701</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>12.99329845002425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.9706162437256793</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11.221421712941099</v>
-      </c>
-      <c r="E12" s="4">
-        <v>14.216850634365599</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>11.469629530344127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8.2595698040152801</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9.3449396385029395</v>
-      </c>
-      <c r="E13" s="4">
-        <v>14.4410770161874</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>10.681862152901873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4">
-        <v>12.0391538525835</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14.448050804983501</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20.355894439129301</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>15.614366365565433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4">
-        <v>8.15285707615379</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9.5473895658059806</v>
-      </c>
-      <c r="E15" s="4">
-        <v>14.5861381603839</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>10.762128267447892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.9539767864648994</v>
-      </c>
-      <c r="D16" s="4">
-        <v>10.551509438405001</v>
-      </c>
-      <c r="E16" s="4">
-        <v>17.7045745491125</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>12.7366869246608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4">
-        <v>11.204616262078099</v>
-      </c>
-      <c r="D17" s="4">
-        <v>14.330809769148599</v>
-      </c>
-      <c r="E17" s="4">
-        <v>18.4260722911146</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>14.653832774113766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.1072464533147794</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10.0287551225539</v>
-      </c>
-      <c r="E18" s="4">
-        <v>14.861325118594999</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>11.332442231487894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10.075768928240601</v>
-      </c>
-      <c r="D19" s="4">
-        <v>12.075120311587099</v>
-      </c>
-      <c r="E19" s="4">
-        <v>14.1061431584081</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>12.0856774660786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4">
-        <v>11.2350948491503</v>
-      </c>
-      <c r="D20" s="4">
-        <v>12.128616927551899</v>
-      </c>
-      <c r="E20" s="4">
-        <v>18.606629678778901</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>13.990113818493702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8.4195326416275407</v>
-      </c>
-      <c r="D21" s="4">
-        <v>13.3121611552563</v>
-      </c>
-      <c r="E21" s="4">
-        <v>19.476340711335101</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>13.736011502739649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10.7269482689591</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11.431745198625199</v>
-      </c>
-      <c r="E22" s="4">
-        <v>12.898485968709901</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>11.685726478764733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6.9045082139537302</v>
-      </c>
-      <c r="D23" s="4">
-        <v>10.954171488315501</v>
-      </c>
-      <c r="E23" s="4">
-        <v>9.6814629442679205</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>9.1800475488457174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8.8032507388541497</v>
-      </c>
-      <c r="D24" s="4">
-        <v>10.952799902590399</v>
-      </c>
-      <c r="E24" s="4">
-        <v>12.241971020719101</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>10.666007220721218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.7110421562492304</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10.728223427910001</v>
-      </c>
-      <c r="E25" s="4">
-        <v>13.5274129579449</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>10.65555951403471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4">
-        <v>7.9968562855880903</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10.2286488611443</v>
-      </c>
-      <c r="E26" s="4">
-        <v>19.851870024672799</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>12.692458390468397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.2748220407922499</v>
-      </c>
-      <c r="D27" s="4">
-        <v>11.3523474414246</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14.851796702943799</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>11.826322061720218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4">
-        <v>8.2088255818861402</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10.8956542310088</v>
-      </c>
-      <c r="E28" s="4">
-        <v>15.0627097563902</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>11.389063189761714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7.8146320020193603</v>
-      </c>
-      <c r="D29" s="4">
-        <v>9.4352935337920307</v>
-      </c>
-      <c r="E29" s="4">
-        <v>9.7057370270455792</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>8.9852208542856573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10.263497076031699</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9.8468170611999497</v>
-      </c>
-      <c r="E30" s="4">
-        <v>12.729637546511199</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>10.946650561247615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4">
-        <v>11.7324568560602</v>
-      </c>
-      <c r="D31" s="4">
-        <v>8.4368668920904906</v>
-      </c>
-      <c r="E31" s="4">
-        <v>13.8989610647895</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>11.356094937646731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7.3049645390304097</v>
-      </c>
-      <c r="D32" s="4">
-        <v>11.349181412863</v>
-      </c>
-      <c r="E32" s="4">
-        <v>11.9527333545247</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>10.20229310213937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4">
-        <v>8.4377279156697398</v>
-      </c>
-      <c r="D33" s="4">
-        <v>12.6772371454657</v>
-      </c>
-      <c r="E33" s="4">
-        <v>16.457620164277198</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>12.524195075137547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="4">
-        <v>9.0418252068848997</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.0900023261905503</v>
-      </c>
-      <c r="E34" s="4">
-        <v>12.5874176907625</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" ref="F34:F55" si="1">AVERAGE(C34:E34)</f>
-        <v>9.9064150746126511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10.578920244650099</v>
-      </c>
-      <c r="D35" s="4">
-        <v>9.7165492261867907</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6.56928140540405</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="1"/>
-        <v>8.9549169587469795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="4">
-        <v>8.2496295327201405</v>
-      </c>
-      <c r="D36" s="4">
-        <v>9.3843200228597894</v>
-      </c>
-      <c r="E36" s="4">
-        <v>15.3559304716048</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="1"/>
-        <v>10.996626675728244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="4">
-        <v>9.2830849770660802</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10.370722759200399</v>
-      </c>
-      <c r="E37" s="4">
-        <v>12.717872197057901</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="1"/>
-        <v>10.790559977774793</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="4">
-        <v>8.1346531837838594</v>
-      </c>
-      <c r="D38" s="4">
-        <v>11.293497486060399</v>
-      </c>
-      <c r="E38" s="4">
-        <v>12.2001841017668</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" si="1"/>
-        <v>10.542778257203686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="4">
-        <v>9.0078636608123492</v>
-      </c>
-      <c r="D39" s="4">
-        <v>11.3646856402308</v>
-      </c>
-      <c r="E39" s="4">
-        <v>10.7516370118129</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="1"/>
-        <v>10.374728770952016</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10.9620190242807</v>
-      </c>
-      <c r="D40" s="4">
-        <v>12.1291200579742</v>
-      </c>
-      <c r="E40" s="4">
-        <v>10.986846121312301</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="1"/>
-        <v>11.359328401189066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="4">
-        <v>9.7322577861594706</v>
-      </c>
-      <c r="D41" s="4">
-        <v>11.067179275688501</v>
-      </c>
-      <c r="E41" s="4">
-        <v>13.561039731755701</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="1"/>
-        <v>11.453492264534558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="4">
-        <v>9.6742919329149597</v>
-      </c>
-      <c r="D42" s="4">
-        <v>9.8323963614351104</v>
-      </c>
-      <c r="E42" s="4">
-        <v>15.8245425404054</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" si="1"/>
-        <v>11.777076944918491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4">
-        <v>9.4265596983403608</v>
-      </c>
-      <c r="D43" s="4">
-        <v>9.4079149495935503</v>
-      </c>
-      <c r="E43" s="4">
-        <v>11.8480303902955</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="1"/>
-        <v>10.227501679409803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4">
-        <v>8.3651421718955508</v>
-      </c>
-      <c r="D44" s="4">
-        <v>10.570437329088101</v>
-      </c>
-      <c r="E44" s="4">
-        <v>12.095142862041101</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="1"/>
-        <v>10.343574121008251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="4">
-        <v>8.8521612057727399</v>
-      </c>
-      <c r="D45" s="4">
-        <v>8.6566539049016793</v>
-      </c>
-      <c r="E45" s="4">
-        <v>13.422063487028501</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="1"/>
-        <v>10.310292865900974</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7.9888318538409102</v>
-      </c>
-      <c r="D46" s="4">
-        <v>7.9693126551082401</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8.9519284380893307</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3033576490128258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="4">
-        <v>9.6693633439742896</v>
-      </c>
-      <c r="D47" s="4">
-        <v>9.90065583296958</v>
-      </c>
-      <c r="E47" s="4">
-        <v>15.553507175265199</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="1"/>
-        <v>11.707842117403024</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <v>10.7306412334445</v>
-      </c>
-      <c r="D48" s="4">
-        <v>9.1493654652492502</v>
-      </c>
-      <c r="E48" s="4">
-        <v>13.032452667069901</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="1"/>
-        <v>10.970819788587884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="4">
-        <v>6.0822290146328202</v>
-      </c>
-      <c r="D49" s="4">
-        <v>9.6026327028497995</v>
-      </c>
-      <c r="E49" s="4">
-        <v>12.321205875031501</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="1"/>
-        <v>9.3353558641713743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5.2085435581071904</v>
-      </c>
-      <c r="D50" s="4">
-        <v>8.1010891852499896</v>
-      </c>
-      <c r="E50" s="4">
-        <v>8.2316589371168707</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1804305601580181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="4">
-        <v>6.3451733077552603</v>
-      </c>
-      <c r="D51" s="4">
-        <v>6.4956145244350099</v>
-      </c>
-      <c r="E51" s="4">
-        <v>11.6685846117837</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="1"/>
-        <v>8.1697908146579898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="4">
-        <v>9.24818200371727</v>
-      </c>
-      <c r="D52" s="4">
-        <v>6.8380849012501104</v>
-      </c>
-      <c r="E52" s="4">
-        <v>12.326514858302099</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="1"/>
-        <v>9.4709272544231595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="4">
-        <v>7.3028327275341498</v>
-      </c>
-      <c r="D53" s="4">
-        <v>10.673463656805099</v>
-      </c>
-      <c r="E53" s="4">
-        <v>11.664915014618201</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="1"/>
-        <v>9.8804037996524841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="4">
-        <v>8.0168559149179295</v>
-      </c>
-      <c r="D54" s="4">
-        <v>8.7146274015660108</v>
-      </c>
-      <c r="E54" s="4">
-        <v>13.30865382651</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="1"/>
-        <v>10.013379047664646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="4">
-        <v>8.1871085978651692</v>
-      </c>
-      <c r="D55" s="4">
-        <v>10.0702395550716</v>
-      </c>
-      <c r="E55" s="4">
-        <v>12.605730076779301</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" si="1"/>
-        <v>10.287692743238692</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A55"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.5703125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2009</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2012</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10">
-        <v>9.0374159753040999</v>
-      </c>
-      <c r="C3" s="10">
-        <v>10.826846063701558</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10.144586347988627</v>
-      </c>
-      <c r="E3" s="11">
-        <v>8.9852208542856573</v>
-      </c>
-      <c r="F3" s="12">
-        <v>7.05205894751</v>
-      </c>
-      <c r="G3" s="12">
-        <v>9.9638290273863994</v>
-      </c>
-      <c r="H3" s="12">
-        <v>13.017350844948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10">
-        <v>11.606999201948554</v>
-      </c>
-      <c r="C4" s="10">
-        <v>11.147261723156589</v>
-      </c>
-      <c r="D4" s="7">
-        <v>11.420149920253541</v>
-      </c>
-      <c r="E4" s="11">
-        <v>10.946650561247615</v>
-      </c>
-      <c r="F4" s="12">
-        <v>8.2517973113118508</v>
-      </c>
-      <c r="G4" s="12">
-        <v>10.0336465132632</v>
-      </c>
-      <c r="H4" s="12">
-        <v>15.8126628197878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10">
-        <v>11.956758305325684</v>
-      </c>
-      <c r="C5" s="10">
-        <v>14.169580674179366</v>
-      </c>
-      <c r="D5" s="7">
-        <v>13.345744330143299</v>
-      </c>
-      <c r="E5" s="11">
-        <v>11.356094937646731</v>
-      </c>
-      <c r="F5" s="12">
-        <v>10.709947776786001</v>
-      </c>
-      <c r="G5" s="12">
-        <v>11.620733820216399</v>
-      </c>
-      <c r="H5" s="12">
-        <v>16.996601342662199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
-        <v>12.551504005897817</v>
-      </c>
-      <c r="C6" s="10">
-        <v>13.584630975621648</v>
-      </c>
-      <c r="D6" s="7">
-        <v>13.344710518642378</v>
-      </c>
-      <c r="E6" s="11">
-        <v>10.20229310213937</v>
-      </c>
-      <c r="F6" s="12">
-        <v>8.5757854722205291</v>
-      </c>
-      <c r="G6" s="12">
-        <v>13.858565649325</v>
-      </c>
-      <c r="H6" s="12">
-        <v>16.743420057473301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10.898983912501116</v>
-      </c>
-      <c r="C7" s="10">
-        <v>14.713918237645933</v>
-      </c>
-      <c r="D7" s="7">
-        <v>12.957844923237566</v>
-      </c>
-      <c r="E7" s="11">
-        <v>12.524195075137547</v>
-      </c>
-      <c r="F7" s="12">
-        <v>10.2683447621186</v>
-      </c>
-      <c r="G7" s="12">
-        <v>12.900584934362699</v>
-      </c>
-      <c r="H7" s="12">
-        <v>15.497573519432599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="10">
-        <v>12.219684088673366</v>
-      </c>
-      <c r="C8" s="10">
-        <v>14.341757028273534</v>
-      </c>
-      <c r="D8" s="7">
-        <v>13.762064560227934</v>
-      </c>
-      <c r="E8" s="11">
-        <v>9.9064150746126511</v>
-      </c>
-      <c r="F8" s="12">
-        <v>11.284851867891399</v>
-      </c>
-      <c r="G8" s="12">
-        <v>13.0203412599471</v>
-      </c>
-      <c r="H8" s="12">
-        <v>15.654477320516801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10.109309406281879</v>
-      </c>
-      <c r="C9" s="10">
-        <v>9.0962561260587353</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9.868254516110218</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8.9549169587469795</v>
-      </c>
-      <c r="F9" s="12">
-        <v>7.1768452631044601</v>
-      </c>
-      <c r="G9" s="12">
-        <v>9.3341903565045001</v>
-      </c>
-      <c r="H9" s="12">
-        <v>12.1906994258509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="10">
-        <v>10.342720070080956</v>
-      </c>
-      <c r="C10" s="10">
-        <v>12.303982629387084</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11.480425466281746</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10.996626675728244</v>
-      </c>
-      <c r="F10" s="12">
-        <v>8.2258670583923994</v>
-      </c>
-      <c r="G10" s="12">
-        <v>9.9011909081027305</v>
-      </c>
-      <c r="H10" s="12">
-        <v>15.920247353175601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10">
-        <v>9.9926383397652021</v>
-      </c>
-      <c r="C11" s="10">
-        <v>11.372487966343462</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10.702513403493597</v>
-      </c>
-      <c r="E11" s="11">
-        <v>10.790559977774793</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8.9667446071447401</v>
-      </c>
-      <c r="G11" s="12">
-        <v>9.7104352478113292</v>
-      </c>
-      <c r="H11" s="12">
-        <v>13.4933516727625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10">
-        <v>12.215300271561022</v>
-      </c>
-      <c r="C12" s="10">
-        <v>12.070094978962095</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12.99329845002425</v>
-      </c>
-      <c r="E12" s="11">
-        <v>10.542778257203686</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9.0004589959170005</v>
-      </c>
-      <c r="G12" s="12">
-        <v>12.3539626659869</v>
-      </c>
-      <c r="H12" s="12">
-        <v>15.053500324220501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10">
-        <v>10.024271770696947</v>
-      </c>
-      <c r="C13" s="10">
-        <v>12.005792097495748</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11.469629530344127</v>
-      </c>
-      <c r="E13" s="11">
-        <v>10.374728770952016</v>
-      </c>
-      <c r="F13" s="12">
-        <v>8.9847066002520997</v>
-      </c>
-      <c r="G13" s="12">
-        <v>11.2720674224382</v>
-      </c>
-      <c r="H13" s="12">
-        <v>12.9220863041117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="10">
-        <v>9.7318091397564288</v>
-      </c>
-      <c r="C14" s="10">
-        <v>11.567630394344706</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10.681862152901873</v>
-      </c>
-      <c r="E14" s="11">
-        <v>11.359328401189066</v>
-      </c>
-      <c r="F14" s="12">
-        <v>8.77895297497966</v>
-      </c>
-      <c r="G14" s="12">
-        <v>10.235497482555401</v>
-      </c>
-      <c r="H14" s="12">
-        <v>13.0878096148503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="10">
-        <v>12.899867133690165</v>
-      </c>
-      <c r="C15" s="10">
-        <v>15.328556945488302</v>
-      </c>
-      <c r="D15" s="7">
-        <v>15.614366365565433</v>
-      </c>
-      <c r="E15" s="11">
-        <v>11.453492264534558</v>
-      </c>
-      <c r="F15" s="12">
-        <v>11.415125624727001</v>
-      </c>
-      <c r="G15" s="12">
-        <v>13.312379855821799</v>
-      </c>
-      <c r="H15" s="12">
-        <v>17.835188799030199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="10">
-        <v>10.596066888931437</v>
-      </c>
-      <c r="C16" s="10">
-        <v>11.65540482248853</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10.762128267447892</v>
-      </c>
-      <c r="E16" s="11">
-        <v>11.777076944918491</v>
-      </c>
-      <c r="F16" s="12">
-        <v>8.5750619658311997</v>
-      </c>
-      <c r="G16" s="12">
-        <v>9.6536708209869992</v>
-      </c>
-      <c r="H16" s="12">
-        <v>15.185195617261099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10">
-        <v>10.823468306697388</v>
-      </c>
-      <c r="C17" s="10">
-        <v>12.455903640424433</v>
-      </c>
-      <c r="D17" s="7">
-        <v>12.7366869246608</v>
-      </c>
-      <c r="E17" s="11">
-        <v>10.227501679409803</v>
-      </c>
-      <c r="F17" s="12">
-        <v>9.7755116639643092</v>
-      </c>
-      <c r="G17" s="12">
-        <v>10.1073162869087</v>
-      </c>
-      <c r="H17" s="12">
-        <v>15.2767049921005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10">
-        <v>11.01210015463883</v>
-      </c>
-      <c r="C18" s="10">
-        <v>15.573064809340634</v>
-      </c>
-      <c r="D18" s="7">
-        <v>14.653832774113766</v>
-      </c>
-      <c r="E18" s="11">
-        <v>10.343574121008251</v>
-      </c>
-      <c r="F18" s="12">
-        <v>10.791130744035399</v>
-      </c>
-      <c r="G18" s="12">
-        <v>13.450536528176301</v>
-      </c>
-      <c r="H18" s="12">
-        <v>16.3347613148756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="10">
-        <v>9.8339183225364533</v>
-      </c>
-      <c r="C19" s="10">
-        <v>12.291426503668268</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11.332442231487894</v>
-      </c>
-      <c r="E19" s="11">
-        <v>10.310292865900974</v>
-      </c>
-      <c r="F19" s="12">
-        <v>9.0595281351428092</v>
-      </c>
-      <c r="G19" s="12">
-        <v>9.6973556120360396</v>
-      </c>
-      <c r="H19" s="12">
-        <v>14.5503272293547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="10">
-        <v>9.7819099451200042</v>
-      </c>
-      <c r="C20" s="10">
-        <v>11.727303216802021</v>
-      </c>
-      <c r="D20" s="7">
-        <v>12.0856774660786</v>
-      </c>
-      <c r="E20" s="11">
-        <v>8.3033576490128258</v>
-      </c>
-      <c r="F20" s="12">
-        <v>9.2782547872016004</v>
-      </c>
-      <c r="G20" s="12">
-        <v>10.683310185359</v>
-      </c>
-      <c r="H20" s="12">
-        <v>12.3596538160843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="10">
-        <v>12.313203408876097</v>
-      </c>
-      <c r="C21" s="10">
-        <v>14.009146567509267</v>
-      </c>
-      <c r="D21" s="7">
-        <v>13.990113818493702</v>
-      </c>
-      <c r="E21" s="11">
-        <v>11.707842117403024</v>
-      </c>
-      <c r="F21" s="12">
-        <v>10.8671802517292</v>
-      </c>
-      <c r="G21" s="12">
-        <v>11.345158940146099</v>
-      </c>
-      <c r="H21" s="12">
-        <v>17.4419575860123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="10">
-        <v>11.982030201010536</v>
-      </c>
-      <c r="C22" s="10">
-        <v>14.301922023018227</v>
-      </c>
-      <c r="D22" s="7">
-        <v>13.736011502739649</v>
-      </c>
-      <c r="E22" s="11">
-        <v>10.970819788587884</v>
-      </c>
-      <c r="F22" s="12">
-        <v>8.7991259241101201</v>
-      </c>
-      <c r="G22" s="12">
-        <v>12.484552034598</v>
-      </c>
-      <c r="H22" s="12">
-        <v>18.0221487238815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10">
-        <v>10.075168257347096</v>
-      </c>
-      <c r="C23" s="10">
-        <v>12.332119383908166</v>
-      </c>
-      <c r="D23" s="7">
-        <v>11.685726478764733</v>
-      </c>
-      <c r="E23" s="11">
-        <v>9.3353558641713743</v>
-      </c>
-      <c r="F23" s="12">
-        <v>9.9351544878341098</v>
-      </c>
-      <c r="G23" s="12">
-        <v>10.9735607716775</v>
-      </c>
-      <c r="H23" s="12">
-        <v>12.7427053457273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10">
-        <v>8.1753628071426032</v>
-      </c>
-      <c r="C24" s="10">
-        <v>9.0982791732310435</v>
-      </c>
-      <c r="D24" s="7">
-        <v>9.1800475488457174</v>
-      </c>
-      <c r="E24" s="11">
-        <v>7.1804305601580181</v>
-      </c>
-      <c r="F24" s="12">
-        <v>6.5061503529984002</v>
-      </c>
-      <c r="G24" s="12">
-        <v>10.2453196356433</v>
-      </c>
-      <c r="H24" s="12">
-        <v>9.2157844023880298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="10">
-        <v>9.1918109251614268</v>
-      </c>
-      <c r="C25" s="10">
-        <v>10.952898873012785</v>
-      </c>
-      <c r="D25" s="7">
-        <v>10.666007220721218</v>
-      </c>
-      <c r="E25" s="11">
-        <v>8.1697908146579898</v>
-      </c>
-      <c r="F25" s="12">
-        <v>8.1375495890492004</v>
-      </c>
-      <c r="G25" s="12">
-        <v>9.7675793175366703</v>
-      </c>
-      <c r="H25" s="12">
-        <v>12.1989958013249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="10">
-        <v>9.1822377574215768</v>
-      </c>
-      <c r="C26" s="10">
-        <v>11.831209442606513</v>
-      </c>
-      <c r="D26" s="7">
-        <v>10.65555951403471</v>
-      </c>
-      <c r="E26" s="11">
-        <v>9.4709272544231595</v>
-      </c>
-      <c r="F26" s="12">
-        <v>7.9484963648275899</v>
-      </c>
-      <c r="G26" s="12">
-        <v>10.241828830592199</v>
-      </c>
-      <c r="H26" s="12">
-        <v>13.3268566895904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="10">
-        <v>11.6077605325882</v>
-      </c>
-      <c r="C27" s="10">
-        <v>12.560270616800096</v>
-      </c>
-      <c r="D27" s="7">
-        <v>12.692458390468397</v>
-      </c>
-      <c r="E27" s="11">
-        <v>9.8804037996524841</v>
-      </c>
-      <c r="F27" s="12">
-        <v>7.8847555890850201</v>
-      </c>
-      <c r="G27" s="12">
-        <v>10.3291515877872</v>
-      </c>
-      <c r="H27" s="12">
-        <v>18.108853438926399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10">
-        <v>10.721050002292591</v>
-      </c>
-      <c r="C28" s="10">
-        <v>11.741232224051231</v>
-      </c>
-      <c r="D28" s="7">
-        <v>11.826322061720218</v>
-      </c>
-      <c r="E28" s="11">
-        <v>10.013379047664646</v>
-      </c>
-      <c r="F28" s="12">
-        <v>8.8975911421189107</v>
-      </c>
-      <c r="G28" s="12">
-        <v>10.488468247697799</v>
-      </c>
-      <c r="H28" s="12">
-        <v>14.2912766374439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="10">
-        <v>9.8170834990051912</v>
-      </c>
-      <c r="C29" s="10">
-        <v>12.249883886919406</v>
-      </c>
-      <c r="D29" s="7">
-        <v>11.389063189761714</v>
-      </c>
-      <c r="E29" s="11">
-        <v>10.287692743238692</v>
-      </c>
-      <c r="F29" s="12">
-        <v>8.2036625934010701</v>
-      </c>
-      <c r="G29" s="12">
-        <v>10.687279830835401</v>
-      </c>
-      <c r="H29" s="12">
-        <v>14.4507397319703</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>